--- a/CNN_RetrainAfterGurobi/Stats/ResultAllFile_RAB.xlsx
+++ b/CNN_RetrainAfterGurobi/Stats/ResultAllFile_RAB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,233 +878,235 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.84912906322865</v>
+        <v>73.02573203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0082103623950274</v>
+        <v>0.9025719129999999</v>
       </c>
       <c r="E8" t="n">
-        <v>97.90732436472346</v>
+        <v>59.3250444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0885941136895847</v>
+        <v>1.592759656</v>
       </c>
       <c r="G8" t="n">
-        <v>99.84912906322865</v>
+        <v>73.02573203</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0082103623950274</v>
+        <v>0.9025719129999999</v>
       </c>
       <c r="I8" t="n">
-        <v>97.90732436472346</v>
+        <v>59.3250444</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0885941136895847</v>
+        <v>1.592759656</v>
       </c>
       <c r="K8" t="n">
-        <v>99.82169798381568</v>
+        <v>83.05235138</v>
       </c>
       <c r="L8" t="n">
-        <v>2.262120323070884</v>
+        <v>3.700246487</v>
       </c>
       <c r="M8" t="n">
-        <v>97.50871948181366</v>
+        <v>51.68738899</v>
       </c>
       <c r="N8" t="n">
-        <v>2.276425965557744</v>
+        <v>4.450152084</v>
       </c>
       <c r="O8" t="n">
-        <v>99.95885338088054</v>
+        <v>35.98047915</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0049284867943916</v>
+        <v>3.276352403</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.35924265072246</v>
+        <v>33.21492007</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1467526470170684</v>
+        <v>3.980937676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.86161020436154</v>
+        <v>77.7284827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0326143285731604</v>
+        <v>0.753825991</v>
       </c>
       <c r="E9" t="n">
-        <v>96.3129048330842</v>
+        <v>64.65364121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1333266285091327</v>
+        <v>1.431201042</v>
       </c>
       <c r="G9" t="n">
-        <v>98.86161020436154</v>
+        <v>97.78172137999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0326143285731604</v>
+        <v>0.094563201</v>
       </c>
       <c r="I9" t="n">
-        <v>96.3129048330842</v>
+        <v>62.52220249</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1333266285091327</v>
+        <v>2.66830157</v>
       </c>
       <c r="K9" t="n">
-        <v>98.55986833081882</v>
+        <v>87.75510204</v>
       </c>
       <c r="L9" t="n">
-        <v>2.286070124025258</v>
+        <v>3.692308156</v>
       </c>
       <c r="M9" t="n">
-        <v>95.41604384653712</v>
+        <v>54.52930728</v>
       </c>
       <c r="N9" t="n">
-        <v>2.286759506882885</v>
+        <v>3.61824922</v>
       </c>
       <c r="O9" t="n">
-        <v>99.64339596763132</v>
+        <v>63.66459627</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0106644564731355</v>
+        <v>1.267754267</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.70802192326856</v>
+        <v>58.79218472</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1213219494939061</v>
+        <v>1.710228487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>99.2319297764367</v>
+        <v>74.88908607</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0244751419508211</v>
+        <v>0.824802556</v>
       </c>
       <c r="E10" t="n">
-        <v>98.00697558545092</v>
+        <v>62.52220249</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0832173074362258</v>
+        <v>1.600678395</v>
       </c>
       <c r="G10" t="n">
-        <v>99.2319297764367</v>
+        <v>87.04525288000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0244751419508211</v>
+        <v>0.42261639</v>
       </c>
       <c r="I10" t="n">
-        <v>98.00697558545092</v>
+        <v>54.70692718</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0832173074362258</v>
+        <v>2.828414029</v>
       </c>
       <c r="K10" t="n">
-        <v>99.465093951447</v>
+        <v>85.00443656</v>
       </c>
       <c r="L10" t="n">
-        <v>2.282124578067936</v>
+        <v>3.450850525</v>
       </c>
       <c r="M10" t="n">
-        <v>97.60837070254112</v>
+        <v>50.44404973</v>
       </c>
       <c r="N10" t="n">
-        <v>2.282764090445699</v>
+        <v>3.648197767</v>
       </c>
       <c r="O10" t="n">
-        <v>99.93142230146756</v>
+        <v>60.20408163</v>
       </c>
       <c r="P10" t="n">
-        <v>0.006821582412031</v>
+        <v>1.321834112</v>
       </c>
       <c r="Q10" t="n">
-        <v>96.96063776781266</v>
+        <v>57.19360568</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1332283027193801</v>
+        <v>1.71899989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>USPS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
+          <t>office31_2060</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>99.465093951447</v>
+        <v>75.21443360000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0194535797173843</v>
+        <v>0.8270668199999999</v>
       </c>
       <c r="E11" t="n">
-        <v>97.95714997508721</v>
+        <v>62.1669627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0872759620352859</v>
+        <v>1.541546364333333</v>
       </c>
       <c r="G11" t="n">
-        <v>99.465093951447</v>
+        <v>85.95090209666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0194535797173843</v>
+        <v>0.4732505013333333</v>
       </c>
       <c r="I11" t="n">
-        <v>97.95714997508721</v>
+        <v>58.85139135666667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0872759620352859</v>
+        <v>2.363158418333333</v>
       </c>
       <c r="K11" t="n">
-        <v>99.42394733232751</v>
+        <v>85.27062999333333</v>
       </c>
       <c r="L11" t="n">
-        <v>2.210382946798648</v>
+        <v>3.614468389333334</v>
       </c>
       <c r="M11" t="n">
-        <v>97.30941704035874</v>
+        <v>52.22024866666667</v>
       </c>
       <c r="N11" t="n">
-        <v>2.206485859091156</v>
+        <v>3.905533023666667</v>
       </c>
       <c r="O11" t="n">
-        <v>99.91770676176108</v>
+        <v>53.28305235</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0061214707888786</v>
+        <v>1.955313594</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.15645241654212</v>
+        <v>49.73357015666667</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0940810710667047</v>
+        <v>2.470055351</v>
       </c>
     </row>
     <row r="12">
@@ -1114,55 +1116,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>99.21821423673022</v>
+        <v>99.84912906322865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0225357408979317</v>
+        <v>0.0082103623950274</v>
       </c>
       <c r="E12" t="n">
-        <v>98.25610363726956</v>
+        <v>97.90732436472346</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0780292633850538</v>
+        <v>0.0885941136895847</v>
       </c>
       <c r="G12" t="n">
-        <v>99.21821423673022</v>
+        <v>99.84912906322865</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0225357408979317</v>
+        <v>0.0082103623950274</v>
       </c>
       <c r="I12" t="n">
-        <v>98.25610363726956</v>
+        <v>97.90732436472346</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0780292633850538</v>
+        <v>0.0885941136895847</v>
       </c>
       <c r="K12" t="n">
-        <v>99.64339596763132</v>
+        <v>99.82169798381568</v>
       </c>
       <c r="L12" t="n">
-        <v>2.293885436634237</v>
+        <v>2.262120323070884</v>
       </c>
       <c r="M12" t="n">
-        <v>97.45889387144992</v>
+        <v>97.50871948181366</v>
       </c>
       <c r="N12" t="n">
-        <v>2.293392948497053</v>
+        <v>2.276425965557744</v>
       </c>
       <c r="O12" t="n">
-        <v>99.71197366616376</v>
+        <v>99.95885338088054</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009232428601821401</v>
+        <v>0.0049284867943916</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.85749875435974</v>
+        <v>97.35924265072246</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1300802931007473</v>
+        <v>0.1467526470170684</v>
       </c>
     </row>
     <row r="13">
@@ -1171,290 +1173,290 @@
           <t>USPS</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B13" t="n">
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>99.32519544644082</v>
+        <v>98.86161020436154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02145783070686498</v>
+        <v>0.0326143285731604</v>
       </c>
       <c r="E13" t="n">
-        <v>97.68809167912306</v>
+        <v>96.3129048330842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09408865501105657</v>
+        <v>0.1333266285091327</v>
       </c>
       <c r="G13" t="n">
-        <v>99.32519544644082</v>
+        <v>98.86161020436154</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02145783070686498</v>
+        <v>0.0326143285731604</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68809167912306</v>
+        <v>96.3129048330842</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09408865501105657</v>
+        <v>0.1333266285091327</v>
       </c>
       <c r="K13" t="n">
-        <v>99.38280071320807</v>
+        <v>98.55986833081882</v>
       </c>
       <c r="L13" t="n">
-        <v>2.266916681719393</v>
+        <v>2.286070124025258</v>
       </c>
       <c r="M13" t="n">
-        <v>97.06028898854012</v>
+        <v>95.41604384653712</v>
       </c>
       <c r="N13" t="n">
-        <v>2.269165674094907</v>
+        <v>2.286759506882885</v>
       </c>
       <c r="O13" t="n">
-        <v>99.83267041558085</v>
+        <v>99.64339596763132</v>
       </c>
       <c r="P13" t="n">
-        <v>0.00755368501405162</v>
+        <v>0.0106644564731355</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.60837070254111</v>
+        <v>97.70802192326856</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1250928526795613</v>
+        <v>0.1213219494939061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>99.98833333</v>
+        <v>99.2319297764367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002341055</v>
+        <v>0.0244751419508211</v>
       </c>
       <c r="E14" t="n">
-        <v>98.64</v>
+        <v>98.00697558545092</v>
       </c>
       <c r="F14" t="n">
-        <v>0.054130606</v>
+        <v>0.0832173074362258</v>
       </c>
       <c r="G14" t="n">
-        <v>99.985</v>
+        <v>99.2319297764367</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002648909</v>
+        <v>0.0244751419508211</v>
       </c>
       <c r="I14" t="n">
-        <v>98.59</v>
+        <v>98.00697558545092</v>
       </c>
       <c r="J14" t="n">
-        <v>0.054063885</v>
+        <v>0.0832173074362258</v>
       </c>
       <c r="K14" t="n">
-        <v>99.98833333</v>
+        <v>99.465093951447</v>
       </c>
       <c r="L14" t="n">
-        <v>2.302395472</v>
+        <v>2.282124578067936</v>
       </c>
       <c r="M14" t="n">
-        <v>98.64</v>
+        <v>97.60837070254112</v>
       </c>
       <c r="N14" t="n">
-        <v>2.302396521</v>
+        <v>2.282764090445699</v>
       </c>
       <c r="O14" t="n">
-        <v>99.33666667</v>
+        <v>99.93142230146756</v>
       </c>
       <c r="P14" t="n">
-        <v>0.021986884</v>
+        <v>0.006821582412031</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.25</v>
+        <v>96.96063776781266</v>
       </c>
       <c r="R14" t="n">
-        <v>0.10052462</v>
+        <v>0.1332283027193801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>99.995</v>
+        <v>99.465093951447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001603907</v>
+        <v>0.0194535797173843</v>
       </c>
       <c r="E15" t="n">
-        <v>98.68000000000001</v>
+        <v>97.95714997508721</v>
       </c>
       <c r="F15" t="n">
-        <v>0.053389957</v>
+        <v>0.0872759620352859</v>
       </c>
       <c r="G15" t="n">
-        <v>99.995</v>
+        <v>99.465093951447</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001911107</v>
+        <v>0.0194535797173843</v>
       </c>
       <c r="I15" t="n">
-        <v>98.67</v>
+        <v>97.95714997508721</v>
       </c>
       <c r="J15" t="n">
-        <v>0.053971824</v>
+        <v>0.0872759620352859</v>
       </c>
       <c r="K15" t="n">
-        <v>99.995</v>
+        <v>99.42394733232751</v>
       </c>
       <c r="L15" t="n">
-        <v>2.302432914</v>
+        <v>2.210382946798648</v>
       </c>
       <c r="M15" t="n">
-        <v>98.67</v>
+        <v>97.30941704035874</v>
       </c>
       <c r="N15" t="n">
-        <v>2.302433682</v>
+        <v>2.206485859091156</v>
       </c>
       <c r="O15" t="n">
-        <v>99.49833332999999</v>
+        <v>99.91770676176108</v>
       </c>
       <c r="P15" t="n">
-        <v>0.016153539</v>
+        <v>0.0061214707888786</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.42</v>
+        <v>98.15645241654212</v>
       </c>
       <c r="R15" t="n">
-        <v>0.11212324</v>
+        <v>0.0940810710667047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>97.47166667</v>
+        <v>99.21821423673022</v>
       </c>
       <c r="D16" t="n">
-        <v>0.081294358</v>
+        <v>0.0225357408979317</v>
       </c>
       <c r="E16" t="n">
-        <v>97.58</v>
+        <v>98.25610363726956</v>
       </c>
       <c r="F16" t="n">
-        <v>0.079959643</v>
+        <v>0.0780292633850538</v>
       </c>
       <c r="G16" t="n">
-        <v>97.47166667</v>
+        <v>99.21821423673022</v>
       </c>
       <c r="H16" t="n">
-        <v>0.081294358</v>
+        <v>0.0225357408979317</v>
       </c>
       <c r="I16" t="n">
-        <v>97.58</v>
+        <v>98.25610363726956</v>
       </c>
       <c r="J16" t="n">
-        <v>0.079959643</v>
+        <v>0.0780292633850538</v>
       </c>
       <c r="K16" t="n">
-        <v>97.98999999999999</v>
+        <v>99.64339596763132</v>
       </c>
       <c r="L16" t="n">
-        <v>2.300502671</v>
+        <v>2.293885436634237</v>
       </c>
       <c r="M16" t="n">
-        <v>97.59999999999999</v>
+        <v>97.45889387144992</v>
       </c>
       <c r="N16" t="n">
-        <v>2.300529079</v>
+        <v>2.293392948497053</v>
       </c>
       <c r="O16" t="n">
-        <v>98.97</v>
+        <v>99.71197366616376</v>
       </c>
       <c r="P16" t="n">
-        <v>0.031739845</v>
+        <v>0.009232428601821401</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.23999999999999</v>
+        <v>97.85749875435974</v>
       </c>
       <c r="R16" t="n">
-        <v>0.060004928</v>
+        <v>0.1300802931007473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MNIST</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
+          <t>USPS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>99.97833333</v>
+        <v>99.32519544644082</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002992859</v>
+        <v>0.02145783070686498</v>
       </c>
       <c r="E17" t="n">
-        <v>98.53</v>
+        <v>97.68809167912306</v>
       </c>
       <c r="F17" t="n">
-        <v>0.066021331</v>
+        <v>0.09408865501105657</v>
       </c>
       <c r="G17" t="n">
-        <v>99.96666667</v>
+        <v>99.32519544644082</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003393548</v>
+        <v>0.02145783070686498</v>
       </c>
       <c r="I17" t="n">
-        <v>98.48999999999999</v>
+        <v>97.68809167912306</v>
       </c>
       <c r="J17" t="n">
-        <v>0.067044219</v>
+        <v>0.09408865501105657</v>
       </c>
       <c r="K17" t="n">
-        <v>99.97833333</v>
+        <v>99.38280071320807</v>
       </c>
       <c r="L17" t="n">
-        <v>2.302281428</v>
+        <v>2.266916681719393</v>
       </c>
       <c r="M17" t="n">
-        <v>98.59</v>
+        <v>97.06028898854012</v>
       </c>
       <c r="N17" t="n">
-        <v>2.302281789</v>
+        <v>2.269165674094907</v>
       </c>
       <c r="O17" t="n">
-        <v>99.11666667</v>
+        <v>99.83267041558085</v>
       </c>
       <c r="P17" t="n">
-        <v>0.031131369</v>
+        <v>0.00755368501405162</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.3</v>
+        <v>97.60837070254111</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06432679700000001</v>
+        <v>0.1250928526795613</v>
       </c>
     </row>
     <row r="18">
@@ -1464,55 +1466,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>99.97499999999999</v>
+        <v>99.98833333</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002831719</v>
+        <v>0.002341055</v>
       </c>
       <c r="E18" t="n">
-        <v>98.43000000000001</v>
+        <v>98.64</v>
       </c>
       <c r="F18" t="n">
-        <v>0.065915934</v>
+        <v>0.054130606</v>
       </c>
       <c r="G18" t="n">
-        <v>99.97166667</v>
+        <v>99.985</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003169737</v>
+        <v>0.002648909</v>
       </c>
       <c r="I18" t="n">
-        <v>98.44</v>
+        <v>98.59</v>
       </c>
       <c r="J18" t="n">
-        <v>0.066334823</v>
+        <v>0.054063885</v>
       </c>
       <c r="K18" t="n">
-        <v>99.97499999999999</v>
+        <v>99.98833333</v>
       </c>
       <c r="L18" t="n">
-        <v>2.30229901</v>
+        <v>2.302395472</v>
       </c>
       <c r="M18" t="n">
-        <v>98.34999999999999</v>
+        <v>98.64</v>
       </c>
       <c r="N18" t="n">
-        <v>2.302300069</v>
+        <v>2.302396521</v>
       </c>
       <c r="O18" t="n">
-        <v>99.19833333</v>
+        <v>99.33666667</v>
       </c>
       <c r="P18" t="n">
-        <v>0.027304389</v>
+        <v>0.021986884</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.08</v>
+        <v>98.25</v>
       </c>
       <c r="R18" t="n">
-        <v>0.111704758</v>
+        <v>0.10052462</v>
       </c>
     </row>
     <row r="19">
@@ -1521,290 +1523,290 @@
           <t>MNIST</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B19" t="n">
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>99.481666666</v>
+        <v>99.995</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0182127796</v>
+        <v>0.001603907</v>
       </c>
       <c r="E19" t="n">
-        <v>98.37199999999999</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0638834942</v>
+        <v>0.053389957</v>
       </c>
       <c r="G19" t="n">
-        <v>99.478000002</v>
+        <v>99.995</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0184835318</v>
+        <v>0.001911107</v>
       </c>
       <c r="I19" t="n">
-        <v>98.354</v>
+        <v>98.67</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0642748788</v>
+        <v>0.053971824</v>
       </c>
       <c r="K19" t="n">
-        <v>99.585333332</v>
+        <v>99.995</v>
       </c>
       <c r="L19" t="n">
-        <v>2.301982299</v>
+        <v>2.302432914</v>
       </c>
       <c r="M19" t="n">
-        <v>98.37</v>
+        <v>98.67</v>
       </c>
       <c r="N19" t="n">
-        <v>2.301988228</v>
+        <v>2.302433682</v>
       </c>
       <c r="O19" t="n">
-        <v>99.22399999999998</v>
+        <v>99.49833332999999</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0256632052</v>
+        <v>0.016153539</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.25800000000001</v>
+        <v>98.42</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08973686859999999</v>
+        <v>0.11212324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CIFAR10</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>94.872</v>
+        <v>97.47166667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1702911768502962</v>
+        <v>0.081294358</v>
       </c>
       <c r="E20" t="n">
-        <v>79.12</v>
+        <v>97.58</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7227297133942968</v>
+        <v>0.079959643</v>
       </c>
       <c r="G20" t="n">
-        <v>95.988</v>
+        <v>97.47166667</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1135333605678783</v>
+        <v>0.081294358</v>
       </c>
       <c r="I20" t="n">
-        <v>78.09999999999999</v>
+        <v>97.58</v>
       </c>
       <c r="J20" t="n">
-        <v>1.030283277401439</v>
+        <v>0.079959643</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>2.301444888629045</v>
+        <v>2.300502671</v>
       </c>
       <c r="M20" t="n">
-        <v>79.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>2.301550560802844</v>
+        <v>2.300529079</v>
       </c>
       <c r="O20" t="n">
-        <v>93.58799999999999</v>
+        <v>98.97</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1837045950308218</v>
+        <v>0.031739845</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.72</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8469813358468354</v>
+        <v>0.060004928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CIFAR10</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>94.57599999999999</v>
+        <v>99.97833333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1770333235242223</v>
+        <v>0.002992859</v>
       </c>
       <c r="E21" t="n">
-        <v>78.84</v>
+        <v>98.53</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7470615657558736</v>
+        <v>0.066021331</v>
       </c>
       <c r="G21" t="n">
-        <v>95.732</v>
+        <v>99.96666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1206017808405367</v>
+        <v>0.003393548</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>1.117512773577369</v>
+        <v>0.067044219</v>
       </c>
       <c r="K21" t="n">
-        <v>96.476</v>
+        <v>99.97833333</v>
       </c>
       <c r="L21" t="n">
-        <v>2.301584409772023</v>
+        <v>2.302281428</v>
       </c>
       <c r="M21" t="n">
-        <v>78.87</v>
+        <v>98.59</v>
       </c>
       <c r="N21" t="n">
-        <v>2.301682607609462</v>
+        <v>2.302281789</v>
       </c>
       <c r="O21" t="n">
-        <v>93.974</v>
+        <v>99.11666667</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1709981465097604</v>
+        <v>0.031131369</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.29000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="R21" t="n">
-        <v>0.848285884765356</v>
+        <v>0.06432679700000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CIFAR10</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>94.61799999999999</v>
+        <v>99.97499999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1751641235897758</v>
+        <v>0.002831719</v>
       </c>
       <c r="E22" t="n">
-        <v>79.2</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7158144231551375</v>
+        <v>0.065915934</v>
       </c>
       <c r="G22" t="n">
-        <v>95.758</v>
+        <v>99.97166667</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1154042003392444</v>
+        <v>0.003169737</v>
       </c>
       <c r="I22" t="n">
-        <v>77.86</v>
+        <v>98.44</v>
       </c>
       <c r="J22" t="n">
-        <v>1.030007067618917</v>
+        <v>0.066334823</v>
       </c>
       <c r="K22" t="n">
-        <v>96.782</v>
+        <v>99.97499999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>2.301521767018872</v>
+        <v>2.30229901</v>
       </c>
       <c r="M22" t="n">
-        <v>79.03</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>2.301618347904105</v>
+        <v>2.302300069</v>
       </c>
       <c r="O22" t="n">
-        <v>94.28</v>
+        <v>99.19833333</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1630860556731367</v>
+        <v>0.027304389</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.45</v>
+        <v>98.08</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7812529797007952</v>
+        <v>0.111704758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CIFAR10</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
+          <t>MNIST</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>94.402</v>
+        <v>99.481666666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1821447069767378</v>
+        <v>0.0182127796</v>
       </c>
       <c r="E23" t="n">
-        <v>78.65000000000001</v>
+        <v>98.37199999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7431717841127106</v>
+        <v>0.0638834942</v>
       </c>
       <c r="G23" t="n">
-        <v>95.116</v>
+        <v>99.478000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1367185075716327</v>
+        <v>0.0184835318</v>
       </c>
       <c r="I23" t="n">
-        <v>77.28</v>
+        <v>98.354</v>
       </c>
       <c r="J23" t="n">
-        <v>1.019757992773063</v>
+        <v>0.0642748788</v>
       </c>
       <c r="K23" t="n">
-        <v>96.374</v>
+        <v>99.585333332</v>
       </c>
       <c r="L23" t="n">
-        <v>2.301645526695457</v>
+        <v>2.301982299</v>
       </c>
       <c r="M23" t="n">
-        <v>78.36</v>
+        <v>98.37</v>
       </c>
       <c r="N23" t="n">
-        <v>2.301738208291676</v>
+        <v>2.301988228</v>
       </c>
       <c r="O23" t="n">
-        <v>93.584</v>
+        <v>99.22399999999998</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1776496661552505</v>
+        <v>0.0256632052</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.11</v>
+        <v>98.25800000000001</v>
       </c>
       <c r="R23" t="n">
-        <v>0.7759945946126506</v>
+        <v>0.08973686859999999</v>
       </c>
     </row>
     <row r="24">
@@ -1813,290 +1815,290 @@
           <t>CIFAR10</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B24" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>94.61699999999999</v>
+        <v>94.872</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176158332735258</v>
+        <v>0.1702911768502962</v>
       </c>
       <c r="E24" t="n">
-        <v>78.95250000000001</v>
+        <v>79.12</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7321943716045046</v>
+        <v>0.7227297133942968</v>
       </c>
       <c r="G24" t="n">
-        <v>95.6485</v>
+        <v>95.988</v>
       </c>
       <c r="H24" t="n">
-        <v>0.121564462329823</v>
+        <v>0.1135333605678783</v>
       </c>
       <c r="I24" t="n">
-        <v>77.59</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>1.049390277842697</v>
+        <v>1.030283277401439</v>
       </c>
       <c r="K24" t="n">
-        <v>96.59299999999999</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>2.301549148028849</v>
+        <v>2.301444888629045</v>
       </c>
       <c r="M24" t="n">
-        <v>78.84</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>2.301647431152022</v>
+        <v>2.301550560802844</v>
       </c>
       <c r="O24" t="n">
-        <v>93.8565</v>
+        <v>93.58799999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1738596158422423</v>
+        <v>0.1837045950308218</v>
       </c>
       <c r="Q24" t="n">
-        <v>79.1425</v>
+        <v>78.72</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8131286987314092</v>
+        <v>0.8469813358468354</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>CIFAR10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>94.57599999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1.248781603654381e-05</v>
+        <v>0.1770333235242223</v>
       </c>
       <c r="E25" t="n">
-        <v>93.04807692307692</v>
+        <v>78.84</v>
       </c>
       <c r="F25" t="n">
-        <v>1.344618188742651</v>
+        <v>0.7470615657558736</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>95.732</v>
       </c>
       <c r="H25" t="n">
-        <v>1.248781603654381e-05</v>
+        <v>0.1206017808405367</v>
       </c>
       <c r="I25" t="n">
-        <v>93.04807692307692</v>
+        <v>77.12</v>
       </c>
       <c r="J25" t="n">
-        <v>1.344618188742651</v>
+        <v>1.117512773577369</v>
       </c>
       <c r="K25" t="n">
-        <v>95.15384615384616</v>
+        <v>96.476</v>
       </c>
       <c r="L25" t="n">
-        <v>3.258045255130039</v>
+        <v>2.301584409772023</v>
       </c>
       <c r="M25" t="n">
-        <v>87.96634615384616</v>
+        <v>78.87</v>
       </c>
       <c r="N25" t="n">
-        <v>3.258048967221325</v>
+        <v>2.301682607609462</v>
       </c>
       <c r="O25" t="n">
-        <v>100</v>
+        <v>93.974</v>
       </c>
       <c r="P25" t="n">
-        <v>2.45273354807732e-05</v>
+        <v>0.1709981465097604</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.04326923076924</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8586135903064869</v>
+        <v>0.848285884765356</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>CIFAR10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>94.61799999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>1.450014525730671e-05</v>
+        <v>0.1751641235897758</v>
       </c>
       <c r="E26" t="n">
-        <v>93.3653846153846</v>
+        <v>79.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1.111589459645738</v>
+        <v>0.7158144231551375</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>95.758</v>
       </c>
       <c r="H26" t="n">
-        <v>1.450014525730671e-05</v>
+        <v>0.1154042003392444</v>
       </c>
       <c r="I26" t="n">
-        <v>93.3653846153846</v>
+        <v>77.86</v>
       </c>
       <c r="J26" t="n">
-        <v>1.111589459645738</v>
+        <v>1.030007067618917</v>
       </c>
       <c r="K26" t="n">
-        <v>96.12900641025639</v>
+        <v>96.782</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25865505870641</v>
+        <v>2.301521767018872</v>
       </c>
       <c r="M26" t="n">
-        <v>89.05288461538461</v>
+        <v>79.03</v>
       </c>
       <c r="N26" t="n">
-        <v>3.258565560945201</v>
+        <v>2.301618347904105</v>
       </c>
       <c r="O26" t="n">
-        <v>100</v>
+        <v>94.28</v>
       </c>
       <c r="P26" t="n">
-        <v>3.634165257971999e-05</v>
+        <v>0.1630860556731367</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.33173076923076</v>
+        <v>79.45</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7005305366231245</v>
+        <v>0.7812529797007952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>CIFAR10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>94.402</v>
       </c>
       <c r="D27" t="n">
-        <v>1.610376652405465e-05</v>
+        <v>0.1821447069767378</v>
       </c>
       <c r="E27" t="n">
-        <v>93.0721153846154</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1.205844920398931</v>
+        <v>0.7431717841127106</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>95.116</v>
       </c>
       <c r="H27" t="n">
-        <v>1.610376652405465e-05</v>
+        <v>0.1367185075716327</v>
       </c>
       <c r="I27" t="n">
-        <v>93.0721153846154</v>
+        <v>77.28</v>
       </c>
       <c r="J27" t="n">
-        <v>1.205844920398931</v>
+        <v>1.019757992773063</v>
       </c>
       <c r="K27" t="n">
-        <v>95.76842948717947</v>
+        <v>96.374</v>
       </c>
       <c r="L27" t="n">
-        <v>3.25781210442897</v>
+        <v>2.301645526695457</v>
       </c>
       <c r="M27" t="n">
-        <v>88.37980769230769</v>
+        <v>78.36</v>
       </c>
       <c r="N27" t="n">
-        <v>3.257822778655983</v>
+        <v>2.301738208291676</v>
       </c>
       <c r="O27" t="n">
-        <v>100</v>
+        <v>93.584</v>
       </c>
       <c r="P27" t="n">
-        <v>4.803536233262552e-05</v>
+        <v>0.1776496661552505</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.29326923076924</v>
+        <v>79.11</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7056281290686934</v>
+        <v>0.7759945946126506</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EMNIST</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
+          <t>CIFAR10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>94.61699999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>1.1109530091451e-05</v>
+        <v>0.176158332735258</v>
       </c>
       <c r="E28" t="n">
-        <v>93.22596153846152</v>
+        <v>78.95250000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>1.158221528843768</v>
+        <v>0.7321943716045046</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>95.6485</v>
       </c>
       <c r="H28" t="n">
-        <v>1.1109530091451e-05</v>
+        <v>0.121564462329823</v>
       </c>
       <c r="I28" t="n">
-        <v>93.22596153846152</v>
+        <v>77.59</v>
       </c>
       <c r="J28" t="n">
-        <v>1.158221528843768</v>
+        <v>1.049390277842697</v>
       </c>
       <c r="K28" t="n">
-        <v>95.34615384615384</v>
+        <v>96.59299999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>3.258042651742727</v>
+        <v>2.301549148028849</v>
       </c>
       <c r="M28" t="n">
-        <v>88.25961538461539</v>
+        <v>78.84</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25803342296654</v>
+        <v>2.301647431152022</v>
       </c>
       <c r="O28" t="n">
-        <v>100</v>
+        <v>93.8565</v>
       </c>
       <c r="P28" t="n">
-        <v>4.268287336691824e-05</v>
+        <v>0.1738596158422423</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.33653846153848</v>
+        <v>79.1425</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6700105147330735</v>
+        <v>0.8131286987314092</v>
       </c>
     </row>
     <row r="29">
@@ -2106,55 +2108,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>1.381637100018158e-05</v>
+        <v>1.248781603654381e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>92.9471153846154</v>
+        <v>93.04807692307692</v>
       </c>
       <c r="F29" t="n">
-        <v>1.261358007347232</v>
+        <v>1.344618188742651</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>1.381637100018158e-05</v>
+        <v>1.248781603654381e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>92.9471153846154</v>
+        <v>93.04807692307692</v>
       </c>
       <c r="J29" t="n">
-        <v>1.261358007347232</v>
+        <v>1.344618188742651</v>
       </c>
       <c r="K29" t="n">
-        <v>94.74519230769231</v>
+        <v>95.15384615384616</v>
       </c>
       <c r="L29" t="n">
-        <v>3.269368161799236</v>
+        <v>3.258045255130039</v>
       </c>
       <c r="M29" t="n">
-        <v>87.91346153846153</v>
+        <v>87.96634615384616</v>
       </c>
       <c r="N29" t="n">
-        <v>3.273344948502114</v>
+        <v>3.258048967221325</v>
       </c>
       <c r="O29" t="n">
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>4.279445769849543e-05</v>
+        <v>2.45273354807732e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.16346153846152</v>
+        <v>93.04326923076924</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7190123241330998</v>
+        <v>0.8586135903064869</v>
       </c>
     </row>
     <row r="30">
@@ -2163,290 +2165,290 @@
           <t>EMNIST</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B30" t="n">
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>1.360352578190755e-05</v>
+        <v>1.450014525730671e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>93.13173076923077</v>
+        <v>93.3653846153846</v>
       </c>
       <c r="F30" t="n">
-        <v>1.216326420995664</v>
+        <v>1.111589459645738</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>1.360352578190755e-05</v>
+        <v>1.450014525730671e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>93.13173076923077</v>
+        <v>93.3653846153846</v>
       </c>
       <c r="J30" t="n">
-        <v>1.216326420995664</v>
+        <v>1.111589459645738</v>
       </c>
       <c r="K30" t="n">
-        <v>95.42852564102563</v>
+        <v>96.12900641025639</v>
       </c>
       <c r="L30" t="n">
-        <v>3.260384646361477</v>
+        <v>3.25865505870641</v>
       </c>
       <c r="M30" t="n">
-        <v>88.31442307692308</v>
+        <v>89.05288461538461</v>
       </c>
       <c r="N30" t="n">
-        <v>3.261163135658233</v>
+        <v>3.258565560945201</v>
       </c>
       <c r="O30" t="n">
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>3.887633629170647e-05</v>
+        <v>3.634165257971999e-05</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.23365384615386</v>
+        <v>93.33173076923076</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7307590189728956</v>
+        <v>0.7005305366231245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>93.34833333333331</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1815220332162433</v>
+        <v>1.610376652405465e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>90.44</v>
+        <v>93.0721153846154</v>
       </c>
       <c r="F31" t="n">
-        <v>0.274603501052004</v>
+        <v>1.205844920398931</v>
       </c>
       <c r="G31" t="n">
-        <v>93.27333333333333</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1832363823031029</v>
+        <v>1.610376652405465e-05</v>
       </c>
       <c r="I31" t="n">
-        <v>90.25</v>
+        <v>93.0721153846154</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2757424290075126</v>
+        <v>1.205844920398931</v>
       </c>
       <c r="K31" t="n">
-        <v>93.35166666666667</v>
+        <v>95.76842948717947</v>
       </c>
       <c r="L31" t="n">
-        <v>2.271908413033209</v>
+        <v>3.25781210442897</v>
       </c>
       <c r="M31" t="n">
-        <v>90.38</v>
+        <v>88.37980769230769</v>
       </c>
       <c r="N31" t="n">
-        <v>2.27222426551892</v>
+        <v>3.257822778655983</v>
       </c>
       <c r="O31" t="n">
-        <v>92.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>0.201758376203207</v>
+        <v>4.803536233262552e-05</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.67</v>
+        <v>93.29326923076924</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3303323048265487</v>
+        <v>0.7056281290686934</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>93.64333333333332</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1765121762135907</v>
+        <v>1.1109530091451e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>90.58</v>
+        <v>93.22596153846152</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2751925231318867</v>
+        <v>1.158221528843768</v>
       </c>
       <c r="G32" t="n">
-        <v>93.56166666666668</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1776514259315</v>
+        <v>1.1109530091451e-05</v>
       </c>
       <c r="I32" t="n">
-        <v>90.45999999999999</v>
+        <v>93.22596153846152</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2753414452971209</v>
+        <v>1.158221528843768</v>
       </c>
       <c r="K32" t="n">
-        <v>93.645</v>
+        <v>95.34615384615384</v>
       </c>
       <c r="L32" t="n">
-        <v>2.288704372793507</v>
+        <v>3.258042651742727</v>
       </c>
       <c r="M32" t="n">
-        <v>90.58</v>
+        <v>88.25961538461539</v>
       </c>
       <c r="N32" t="n">
-        <v>2.288784517854964</v>
+        <v>3.25803342296654</v>
       </c>
       <c r="O32" t="n">
-        <v>92.295</v>
+        <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2144063421703962</v>
+        <v>4.268287336691824e-05</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.2</v>
+        <v>93.33653846153848</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3094814679527125</v>
+        <v>0.6700105147330735</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>95.86166666666666</v>
+        <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1195517803449577</v>
+        <v>1.381637100018158e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>90.59999999999999</v>
+        <v>92.9471153846154</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3075518688480116</v>
+        <v>1.261358007347232</v>
       </c>
       <c r="G33" t="n">
-        <v>95.75</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1213009285399184</v>
+        <v>1.381637100018158e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>90.58</v>
+        <v>92.9471153846154</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3104381507633959</v>
+        <v>1.261358007347232</v>
       </c>
       <c r="K33" t="n">
-        <v>95.86833333333334</v>
+        <v>94.74519230769231</v>
       </c>
       <c r="L33" t="n">
-        <v>2.2894736047233</v>
+        <v>3.269368161799236</v>
       </c>
       <c r="M33" t="n">
-        <v>90.56</v>
+        <v>87.91346153846153</v>
       </c>
       <c r="N33" t="n">
-        <v>2.289623190482317</v>
+        <v>3.273344948502114</v>
       </c>
       <c r="O33" t="n">
-        <v>94.01333333333334</v>
+        <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>0.1669896718235305</v>
+        <v>4.279445769849543e-05</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.37</v>
+        <v>93.16346153846152</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3553850278396745</v>
+        <v>0.7190123241330998</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4</v>
+          <t>EMNIST</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>93.76333333333334</v>
+        <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1752253463905972</v>
+        <v>1.360352578190755e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>90.29000000000001</v>
+        <v>93.13173076923077</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2784052003804946</v>
+        <v>1.216326420995664</v>
       </c>
       <c r="G34" t="n">
-        <v>93.67833333333331</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1766611210210322</v>
+        <v>1.360352578190755e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>90.27</v>
+        <v>93.13173076923077</v>
       </c>
       <c r="J34" t="n">
-        <v>0.279222828395458</v>
+        <v>1.216326420995664</v>
       </c>
       <c r="K34" t="n">
-        <v>93.75833333333334</v>
+        <v>95.42852564102563</v>
       </c>
       <c r="L34" t="n">
-        <v>2.279395047941519</v>
+        <v>3.260384646361477</v>
       </c>
       <c r="M34" t="n">
-        <v>90.2</v>
+        <v>88.31442307692308</v>
       </c>
       <c r="N34" t="n">
-        <v>2.27955545623233</v>
+        <v>3.261163135658233</v>
       </c>
       <c r="O34" t="n">
-        <v>92.55500000000001</v>
+        <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2060715595227134</v>
+        <v>3.887633629170647e-05</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.51000000000001</v>
+        <v>93.23365384615386</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3561607054494816</v>
+        <v>0.7307590189728956</v>
       </c>
     </row>
     <row r="35">
@@ -2456,55 +2458,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>93.58</v>
+        <v>93.34833333333331</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1780264505164259</v>
+        <v>0.1815220332162433</v>
       </c>
       <c r="E35" t="n">
-        <v>90.76000000000001</v>
+        <v>90.44</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2625935449975994</v>
+        <v>0.274603501052004</v>
       </c>
       <c r="G35" t="n">
-        <v>93.51666666666668</v>
+        <v>93.27333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1792471366389667</v>
+        <v>0.1832363823031029</v>
       </c>
       <c r="I35" t="n">
-        <v>90.83</v>
+        <v>90.25</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2623361361507473</v>
+        <v>0.2757424290075126</v>
       </c>
       <c r="K35" t="n">
-        <v>93.58166666666666</v>
+        <v>93.35166666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>2.287751561059622</v>
+        <v>2.271908413033209</v>
       </c>
       <c r="M35" t="n">
-        <v>90.76000000000001</v>
+        <v>90.38</v>
       </c>
       <c r="N35" t="n">
-        <v>2.287942686445289</v>
+        <v>2.27222426551892</v>
       </c>
       <c r="O35" t="n">
-        <v>92.19666666666669</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2143626198599612</v>
+        <v>0.201758376203207</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.26000000000001</v>
+        <v>89.67</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2954954247452415</v>
+        <v>0.3303323048265487</v>
       </c>
     </row>
     <row r="36">
@@ -2513,291 +2515,523 @@
           <t>FashionMNIST</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B36" t="n">
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>94.03933333333332</v>
+        <v>93.64333333333332</v>
       </c>
       <c r="D36" t="n">
-        <v>0.166167557336363</v>
+        <v>0.1765121762135907</v>
       </c>
       <c r="E36" t="n">
-        <v>90.53400000000001</v>
+        <v>90.58</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2796693276819993</v>
+        <v>0.2751925231318867</v>
       </c>
       <c r="G36" t="n">
-        <v>93.95599999999999</v>
+        <v>93.56166666666668</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1676193988869041</v>
+        <v>0.1776514259315</v>
       </c>
       <c r="I36" t="n">
-        <v>90.47799999999998</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.280616197922847</v>
+        <v>0.2753414452971209</v>
       </c>
       <c r="K36" t="n">
-        <v>94.041</v>
+        <v>93.645</v>
       </c>
       <c r="L36" t="n">
-        <v>2.283446599910231</v>
+        <v>2.288704372793507</v>
       </c>
       <c r="M36" t="n">
-        <v>90.496</v>
+        <v>90.58</v>
       </c>
       <c r="N36" t="n">
-        <v>2.283626023306764</v>
+        <v>2.288784517854964</v>
       </c>
       <c r="O36" t="n">
-        <v>92.748</v>
+        <v>92.295</v>
       </c>
       <c r="P36" t="n">
-        <v>0.2007177139159617</v>
+        <v>0.2144063421703962</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.002</v>
+        <v>90.2</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3293709861627317</v>
+        <v>0.3094814679527125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SVHN_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>96.9996041333934</v>
+        <v>95.86166666666666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1174097144911187</v>
+        <v>0.1195517803449577</v>
       </c>
       <c r="E37" t="n">
-        <v>93.55024585126</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2296614794091498</v>
+        <v>0.3075518688480116</v>
       </c>
       <c r="G37" t="n">
-        <v>97.32721787678992</v>
+        <v>95.75</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0923936641579859</v>
+        <v>0.1213009285399184</v>
       </c>
       <c r="I37" t="n">
-        <v>92.36708666256916</v>
+        <v>90.58</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3000191767598699</v>
+        <v>0.3104381507633959</v>
       </c>
       <c r="K37" t="n">
-        <v>97.70533873896009</v>
+        <v>95.86833333333334</v>
       </c>
       <c r="L37" t="n">
-        <v>2.302037495471421</v>
+        <v>2.2894736047233</v>
       </c>
       <c r="M37" t="n">
-        <v>93.43884449907806</v>
+        <v>90.56</v>
       </c>
       <c r="N37" t="n">
-        <v>2.30204799604621</v>
+        <v>2.289623190482317</v>
       </c>
       <c r="O37" t="n">
-        <v>96.1136819689586</v>
+        <v>94.01333333333334</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1290799808074358</v>
+        <v>0.1669896718235305</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.57713583282114</v>
+        <v>90.37</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2344324323506115</v>
+        <v>0.3553850278396745</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SVHN_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>97.05147630943118</v>
+        <v>93.76333333333334</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1143365313929371</v>
+        <v>0.1752253463905972</v>
       </c>
       <c r="E38" t="n">
-        <v>93.82682851874615</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.223590963023824</v>
+        <v>0.2784052003804946</v>
       </c>
       <c r="G38" t="n">
-        <v>97.17706157773318</v>
+        <v>93.67833333333331</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0953459775262394</v>
+        <v>0.1766611210210322</v>
       </c>
       <c r="I38" t="n">
-        <v>93.19299323909036</v>
+        <v>90.27</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2796316289267953</v>
+        <v>0.279222828395458</v>
       </c>
       <c r="K38" t="n">
-        <v>97.66438702103554</v>
+        <v>93.75833333333334</v>
       </c>
       <c r="L38" t="n">
-        <v>2.302107463768949</v>
+        <v>2.279395047941519</v>
       </c>
       <c r="M38" t="n">
-        <v>93.72311001843885</v>
+        <v>90.2</v>
       </c>
       <c r="N38" t="n">
-        <v>2.302117701168799</v>
+        <v>2.27955545623233</v>
       </c>
       <c r="O38" t="n">
-        <v>95.85432108876968</v>
+        <v>92.55500000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1454400534729379</v>
+        <v>0.2060715595227134</v>
       </c>
       <c r="Q38" t="n">
-        <v>93.48494161032576</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2358949668270426</v>
+        <v>0.3561607054494816</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SVHN_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>97.40502614084662</v>
+        <v>93.58</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1052261014066343</v>
+        <v>0.1780264505164259</v>
       </c>
       <c r="E39" t="n">
-        <v>93.40043023970496</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.230220852198781</v>
+        <v>0.2625935449975994</v>
       </c>
       <c r="G39" t="n">
-        <v>97.45143808782778</v>
+        <v>93.51666666666668</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08635372958597461</v>
+        <v>0.1792471366389667</v>
       </c>
       <c r="I39" t="n">
-        <v>92.85878918254456</v>
+        <v>90.83</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2923355143295158</v>
+        <v>0.2623361361507473</v>
       </c>
       <c r="K39" t="n">
-        <v>97.92238284396031</v>
+        <v>93.58166666666666</v>
       </c>
       <c r="L39" t="n">
-        <v>2.302168201120844</v>
+        <v>2.287751561059622</v>
       </c>
       <c r="M39" t="n">
-        <v>93.25445605408729</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>2.302178570736238</v>
+        <v>2.287942686445289</v>
       </c>
       <c r="O39" t="n">
-        <v>96.18329988943036</v>
+        <v>92.19666666666669</v>
       </c>
       <c r="P39" t="n">
-        <v>0.129207299931959</v>
+        <v>0.2143626198599612</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.27750460971112</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2407262841881823</v>
+        <v>0.2954954247452415</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>FashionMNIST</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>94.03933333333332</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.166167557336363</v>
+      </c>
+      <c r="E40" t="n">
+        <v>90.53400000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2796693276819993</v>
+      </c>
+      <c r="G40" t="n">
+        <v>93.95599999999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.1676193988869041</v>
+      </c>
+      <c r="I40" t="n">
+        <v>90.47799999999998</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.280616197922847</v>
+      </c>
+      <c r="K40" t="n">
+        <v>94.041</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.283446599910231</v>
+      </c>
+      <c r="M40" t="n">
+        <v>90.496</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.283626023306764</v>
+      </c>
+      <c r="O40" t="n">
+        <v>92.748</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.2007177139159617</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>90.002</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3293709861627317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>SVHN_32</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>96.9996041333934</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1174097144911187</v>
+      </c>
+      <c r="E41" t="n">
+        <v>93.55024585126</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2296614794091498</v>
+      </c>
+      <c r="G41" t="n">
+        <v>97.32721787678992</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0923936641579859</v>
+      </c>
+      <c r="I41" t="n">
+        <v>92.36708666256916</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3000191767598699</v>
+      </c>
+      <c r="K41" t="n">
+        <v>97.70533873896009</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.302037495471421</v>
+      </c>
+      <c r="M41" t="n">
+        <v>93.43884449907806</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.30204799604621</v>
+      </c>
+      <c r="O41" t="n">
+        <v>96.1136819689586</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.1290799808074358</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>93.57713583282114</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2344324323506115</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SVHN_32</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>97.05147630943118</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1143365313929371</v>
+      </c>
+      <c r="E42" t="n">
+        <v>93.82682851874615</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.223590963023824</v>
+      </c>
+      <c r="G42" t="n">
+        <v>97.17706157773318</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0953459775262394</v>
+      </c>
+      <c r="I42" t="n">
+        <v>93.19299323909036</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2796316289267953</v>
+      </c>
+      <c r="K42" t="n">
+        <v>97.66438702103554</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.302107463768949</v>
+      </c>
+      <c r="M42" t="n">
+        <v>93.72311001843885</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.302117701168799</v>
+      </c>
+      <c r="O42" t="n">
+        <v>95.85432108876968</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.1454400534729379</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>93.48494161032576</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2358949668270426</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SVHN_32</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>97.40502614084662</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1052261014066343</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.40043023970496</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.230220852198781</v>
+      </c>
+      <c r="G43" t="n">
+        <v>97.45143808782778</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.08635372958597461</v>
+      </c>
+      <c r="I43" t="n">
+        <v>92.85878918254456</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2923355143295158</v>
+      </c>
+      <c r="K43" t="n">
+        <v>97.92238284396031</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.302168201120844</v>
+      </c>
+      <c r="M43" t="n">
+        <v>93.25445605408729</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.302178570736238</v>
+      </c>
+      <c r="O43" t="n">
+        <v>96.18329988943036</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.129207299931959</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>93.27750460971112</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2407262841881823</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SVHN_32</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>97.15203552789039</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>0.1123241157635634</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E44" t="n">
         <v>93.59250153657037</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F44" t="n">
         <v>0.2278244315439183</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G44" t="n">
         <v>97.31857251411697</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>0.09136445709006663</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>92.80628969473469</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J44" t="n">
         <v>0.2906621066720603</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K44" t="n">
         <v>97.76403620131863</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>2.302104386787072</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M44" t="n">
         <v>93.47213685720139</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N44" t="n">
         <v>2.302114755983749</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O44" t="n">
         <v>96.05043431571954</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P44" t="n">
         <v>0.1345757780707776</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q44" t="n">
         <v>93.44652735095268</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R44" t="n">
         <v>0.2370178944552788</v>
       </c>
     </row>
